--- a/assets/excel/penilaian.xlsx
+++ b/assets/excel/penilaian.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="18">
   <si>
     <t>Pendidikan Agama dan Pekerti</t>
   </si>
@@ -69,13 +69,22 @@
   </si>
   <si>
     <t>dalam mapel</t>
+  </si>
+  <si>
+    <t>NP</t>
+  </si>
+  <si>
+    <t>NKK</t>
+  </si>
+  <si>
+    <t>NSS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,8 +92,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -115,8 +137,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -233,11 +261,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -266,6 +305,67 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
@@ -274,36 +374,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -585,217 +655,716 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD2"/>
+  <dimension ref="A1:AV100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" style="2" customWidth="1"/>
-    <col min="4" max="5" width="12.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="2" customWidth="1"/>
+    <col min="4" max="7" width="12.28515625" style="2" customWidth="1"/>
     <col min="8" max="8" width="11.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" style="2" customWidth="1"/>
+    <col min="9" max="11" width="11.85546875" style="2" customWidth="1"/>
     <col min="12" max="12" width="11.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11" style="2" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="10.5703125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="11.85546875" style="2" customWidth="1"/>
-    <col min="19" max="19" width="10.85546875" style="2" customWidth="1"/>
-    <col min="20" max="20" width="10.7109375" style="2" customWidth="1"/>
-    <col min="21" max="21" width="11.5703125" style="2" customWidth="1"/>
-    <col min="22" max="22" width="9.85546875" style="2" customWidth="1"/>
-    <col min="23" max="23" width="10.5703125" style="2" customWidth="1"/>
-    <col min="24" max="24" width="11.85546875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="10.7109375" style="2" customWidth="1"/>
-    <col min="26" max="26" width="11.42578125" style="2" customWidth="1"/>
-    <col min="27" max="27" width="12.140625" style="2" customWidth="1"/>
-    <col min="28" max="28" width="11.28515625" style="2" customWidth="1"/>
-    <col min="29" max="29" width="10.85546875" style="8" customWidth="1"/>
-    <col min="30" max="30" width="12.140625" style="2" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="13" width="11.7109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="2" customWidth="1"/>
+    <col min="16" max="18" width="11.5703125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="11" style="2" customWidth="1"/>
+    <col min="20" max="22" width="10.5703125" style="2" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" style="2" customWidth="1"/>
+    <col min="24" max="24" width="10.5703125" style="2" customWidth="1"/>
+    <col min="25" max="27" width="11.7109375" style="2" customWidth="1"/>
+    <col min="28" max="28" width="11.85546875" style="2" customWidth="1"/>
+    <col min="29" max="29" width="10.85546875" style="2" customWidth="1"/>
+    <col min="30" max="32" width="10.7109375" style="2" customWidth="1"/>
+    <col min="33" max="33" width="11.5703125" style="2" customWidth="1"/>
+    <col min="34" max="34" width="9.85546875" style="2" customWidth="1"/>
+    <col min="35" max="37" width="10.5703125" style="2" customWidth="1"/>
+    <col min="38" max="38" width="11.85546875" style="2" customWidth="1"/>
+    <col min="39" max="39" width="10.7109375" style="2" customWidth="1"/>
+    <col min="40" max="40" width="11.42578125" style="2" customWidth="1"/>
+    <col min="41" max="41" width="11.85546875" style="2" customWidth="1"/>
+    <col min="42" max="42" width="11.7109375" style="2" customWidth="1"/>
+    <col min="43" max="43" width="12.140625" style="2" customWidth="1"/>
+    <col min="44" max="44" width="11.28515625" style="2" customWidth="1"/>
+    <col min="45" max="47" width="10.85546875" style="8" customWidth="1"/>
+    <col min="48" max="48" width="12.140625" style="2" customWidth="1"/>
+    <col min="49" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="13" t="s">
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="17"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="17"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="16" t="s">
-        <v>6</v>
-      </c>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
       <c r="Q1" s="17"/>
       <c r="R1" s="18"/>
-      <c r="S1" s="16" t="s">
+      <c r="S1" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="T1" s="17"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="16" t="s">
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="W1" s="17"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="13" t="s">
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="20"/>
+      <c r="AK1" s="20"/>
+      <c r="AL1" s="21"/>
+      <c r="AM1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="19" t="s">
+      <c r="AN1" s="23"/>
+      <c r="AO1" s="23"/>
+      <c r="AP1" s="23"/>
+      <c r="AQ1" s="24"/>
+      <c r="AR1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19"/>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="AS1" s="25"/>
+      <c r="AT1" s="25"/>
+      <c r="AU1" s="25"/>
+      <c r="AV1" s="25"/>
+    </row>
+    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="15"/>
+      <c r="H2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="15"/>
+      <c r="K2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="15"/>
+      <c r="M2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="15"/>
+      <c r="P2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="T2" s="15"/>
+      <c r="U2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="V2" s="15"/>
+      <c r="W2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="X2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF2" s="15"/>
+      <c r="AG2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI2" s="15"/>
+      <c r="AJ2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK2" s="15"/>
+      <c r="AL2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN2" s="15"/>
+      <c r="AO2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AP2" s="15"/>
+      <c r="AQ2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AR2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS2" s="15"/>
+      <c r="AT2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AU2" s="15"/>
+      <c r="AV2" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="7" t="s">
+      <c r="I3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="7" t="s">
+      <c r="N3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="O2" s="7" t="s">
+      <c r="S3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="W3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="R2" s="7" t="s">
+      <c r="X3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="U2" s="7" t="s">
+      <c r="AC3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="X2" s="7" t="s">
+      <c r="AH3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="Y2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA2" s="7" t="s">
+      <c r="AM3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD2" s="9" t="s">
+      <c r="AR3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV3" s="9" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="10"/>
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="2"/>
+      <c r="AU4" s="2"/>
+    </row>
+    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="10"/>
+      <c r="AS5" s="2"/>
+      <c r="AT5" s="2"/>
+      <c r="AU5" s="2"/>
+    </row>
+    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="10"/>
+      <c r="AS6" s="2"/>
+      <c r="AT6" s="2"/>
+      <c r="AU6" s="2"/>
+    </row>
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AT7" s="2"/>
+    </row>
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AT8" s="2"/>
+    </row>
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AT9" s="2"/>
+    </row>
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AT10" s="2"/>
+    </row>
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AT11" s="2"/>
+    </row>
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AT12" s="2"/>
+    </row>
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AT13" s="2"/>
+    </row>
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AT14" s="2"/>
+    </row>
+    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AT15" s="2"/>
+    </row>
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AT16" s="2"/>
+    </row>
+    <row r="17" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT17" s="2"/>
+    </row>
+    <row r="18" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT18" s="2"/>
+    </row>
+    <row r="19" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT19" s="2"/>
+    </row>
+    <row r="20" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT20" s="2"/>
+    </row>
+    <row r="21" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT21" s="2"/>
+    </row>
+    <row r="22" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT22" s="2"/>
+    </row>
+    <row r="23" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT23" s="2"/>
+    </row>
+    <row r="24" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT24" s="2"/>
+    </row>
+    <row r="25" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT25" s="2"/>
+    </row>
+    <row r="26" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT26" s="2"/>
+    </row>
+    <row r="27" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT27" s="2"/>
+    </row>
+    <row r="28" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT28" s="2"/>
+    </row>
+    <row r="29" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT29" s="2"/>
+    </row>
+    <row r="30" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT30" s="2"/>
+    </row>
+    <row r="31" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT31" s="2"/>
+    </row>
+    <row r="32" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT32" s="2"/>
+    </row>
+    <row r="33" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT33" s="2"/>
+    </row>
+    <row r="34" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT34" s="2"/>
+    </row>
+    <row r="35" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT35" s="2"/>
+    </row>
+    <row r="36" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT36" s="2"/>
+    </row>
+    <row r="37" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT37" s="2"/>
+    </row>
+    <row r="38" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT38" s="2"/>
+    </row>
+    <row r="39" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT39" s="2"/>
+    </row>
+    <row r="40" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT40" s="2"/>
+    </row>
+    <row r="41" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT41" s="2"/>
+    </row>
+    <row r="42" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT42" s="2"/>
+    </row>
+    <row r="43" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT43" s="2"/>
+    </row>
+    <row r="44" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT44" s="2"/>
+    </row>
+    <row r="45" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT45" s="2"/>
+    </row>
+    <row r="46" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT46" s="2"/>
+    </row>
+    <row r="47" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT47" s="2"/>
+    </row>
+    <row r="48" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT48" s="2"/>
+    </row>
+    <row r="49" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT49" s="2"/>
+    </row>
+    <row r="50" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT50" s="2"/>
+    </row>
+    <row r="51" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT51" s="2"/>
+    </row>
+    <row r="52" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT52" s="2"/>
+    </row>
+    <row r="53" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT53" s="2"/>
+    </row>
+    <row r="54" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT54" s="2"/>
+    </row>
+    <row r="55" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT55" s="2"/>
+    </row>
+    <row r="56" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT56" s="2"/>
+    </row>
+    <row r="57" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT57" s="2"/>
+    </row>
+    <row r="58" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT58" s="2"/>
+    </row>
+    <row r="59" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT59" s="2"/>
+    </row>
+    <row r="60" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT60" s="2"/>
+    </row>
+    <row r="61" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT61" s="2"/>
+    </row>
+    <row r="62" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT62" s="2"/>
+    </row>
+    <row r="63" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT63" s="2"/>
+    </row>
+    <row r="64" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT64" s="2"/>
+    </row>
+    <row r="65" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT65" s="2"/>
+    </row>
+    <row r="66" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT66" s="2"/>
+    </row>
+    <row r="67" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT67" s="2"/>
+    </row>
+    <row r="68" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT68" s="2"/>
+    </row>
+    <row r="69" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT69" s="2"/>
+    </row>
+    <row r="70" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT70" s="2"/>
+    </row>
+    <row r="71" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT71" s="2"/>
+    </row>
+    <row r="72" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT72" s="2"/>
+    </row>
+    <row r="73" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT73" s="2"/>
+    </row>
+    <row r="74" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT74" s="2"/>
+    </row>
+    <row r="75" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT75" s="2"/>
+    </row>
+    <row r="76" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT76" s="2"/>
+    </row>
+    <row r="77" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT77" s="2"/>
+    </row>
+    <row r="78" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT78" s="2"/>
+    </row>
+    <row r="79" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT79" s="2"/>
+    </row>
+    <row r="80" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT80" s="2"/>
+    </row>
+    <row r="81" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT81" s="2"/>
+    </row>
+    <row r="82" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT82" s="2"/>
+    </row>
+    <row r="83" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT83" s="2"/>
+    </row>
+    <row r="84" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT84" s="2"/>
+    </row>
+    <row r="85" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT85" s="2"/>
+    </row>
+    <row r="86" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT86" s="2"/>
+    </row>
+    <row r="87" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT87" s="2"/>
+    </row>
+    <row r="88" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT88" s="2"/>
+    </row>
+    <row r="89" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT89" s="2"/>
+    </row>
+    <row r="90" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT90" s="2"/>
+    </row>
+    <row r="91" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT91" s="2"/>
+    </row>
+    <row r="92" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT92" s="2"/>
+    </row>
+    <row r="93" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT93" s="2"/>
+    </row>
+    <row r="94" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT94" s="2"/>
+    </row>
+    <row r="95" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT95" s="2"/>
+    </row>
+    <row r="96" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT96" s="2"/>
+    </row>
+    <row r="97" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT97" s="2"/>
+    </row>
+    <row r="98" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT98" s="2"/>
+    </row>
+    <row r="99" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT99" s="2"/>
+    </row>
+    <row r="100" spans="46:46" x14ac:dyDescent="0.25">
+      <c r="AT100" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
+  <mergeCells count="30">
+    <mergeCell ref="AC1:AG1"/>
+    <mergeCell ref="AH1:AL1"/>
+    <mergeCell ref="AM1:AQ1"/>
+    <mergeCell ref="AR1:AV1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="X1:AB1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AO2:AP2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
   </mergeCells>
   <dataValidations xWindow="561" yWindow="469" count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="pilih list yang tersedia" prompt="Klik panah kanan untuk memilih" sqref="AC3:AC100 E3:E100 H3:H100 K3:K100 N3:N100 Q3:Q100 T3:T100 W3:W100 Z3:Z100">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="pilih list yang tersedia" prompt="Klik panah kanan untuk memilih" sqref="AI4:AI101 AN4:AN101 J4:J100 Q4:Q100 AD4:AD101 O4:O101 T4:T101 Y4:Y101 E4:E101 F101 G4:G101 L4:L101 V4:V101 U101 AA4:AA101 Z101 AF4:AF101 AE101 AK4:AK101 AJ101 AP4:AP101 AO101 AU4:AU101 AT101 AS4:AS101">
       <formula1>"A, B, C, D, E"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="minimum 10 - maksimum 100" prompt="10 - 100" sqref="AB3:AB100 D3:D100 J3:J100 M3:M100 P3:P100 S3:S100 V3:V100 G3:G100 Y3:Y100">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="minimum 10 - maksimum 100" prompt="10 - 100" sqref="AO4:AO100 D4:D101 P4:P100 AJ4:AJ100 U4:U100 Z4:Z100 AE4:AE100 F4:F100 AT4:AT100 K4:K101 J101 I4:I101 N4:N101 S4:S101 X4:X101 AC4:AC101 AH4:AH101 AM4:AM101 AR4:AR101">
       <formula1>10</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Nama lengkap" sqref="B3:B100"/>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Pilih list yang tersedia" prompt="1 - 8" sqref="C3:C100">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Nama lengkap" sqref="B7:B101"/>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Pilih list yang tersedia" prompt="1 - 8" sqref="C4:C101">
       <formula1>1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="pilih list yang tersedia" prompt="Klik panah kanan untuk memilih" sqref="F3:F100 I3:I100 L3:L100 O3:O100 R3:R100 U3:U100 X3:X100 AA3:AA100 AD3:AD100">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="pilih list yang tersedia" prompt="Klik panah kanan untuk memilih" sqref="H4:H101 AQ4:AQ101 M4:M101 AL4:AL101 R4:R101 W4:W101 AB4:AB101 AG4:AG101 P101:Q101 AV4:AV101">
       <formula1>"SB,B,C,K"</formula1>
     </dataValidation>
   </dataValidations>
